--- a/biology/Botanique/Séneçon_cacaliaster/Séneçon_cacaliaster.xlsx
+++ b/biology/Botanique/Séneçon_cacaliaster/Séneçon_cacaliaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_cacaliaster</t>
+          <t>Séneçon_cacaliaster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senecio cacaliaster
 Le Séneçon cacaliaster ou Séneçon fausse-cacalie ou encore Séneçon de Croatie est une plante herbacée de la famille des Asteraceae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_cacaliaster</t>
+          <t>Séneçon_cacaliaster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Séneçon cacaliaster est une plante vivace de 80 à 120 cm de haut à tige dressée et robuste pourvue de feuilles longues, effilées et finement dentelées. Les fleurs sont jaune pâle, regroupées en petits capitules en corymbe, et ne présentent pas de ligules (ce qui le distingue du séneçon de Fuchs). Les graines peuvent être emportées par le vent sur de longues distances (100 km).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_cacaliaster</t>
+          <t>Séneçon_cacaliaster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la plante n'est présente que dans le Massif central, au-dessus de 1 000 m, généralement sur sol volcanique, dans les clairières ou les lisières des hêtraies ou dans les mégaphorbiaies. Ailleurs en Europe, on ne la trouve guère que dans les Alpes orientales (Tyrol, Carinthie, Dolomites, Alpes juliennes) et en Croatie.
 </t>
